--- a/data/PamEnvanter.xlsx
+++ b/data/PamEnvanter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnesPekdas\Desktop\Projeler\BT-THY\Otomasyon\BTMigrate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880F9A53-8B99-45B9-9AC8-AA58842ACDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B690FF-AFEA-42CB-8782-5E5A51DDF85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4110" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="108">
   <si>
     <t>S_OZCAN</t>
   </si>
@@ -319,10 +319,37 @@
     <t>No Reason</t>
   </si>
   <si>
-    <t>10.58.59.100;10.58.59.102</t>
-  </si>
-  <si>
-    <t>10.58.59.101;10.58.59.102</t>
+    <t>10.58.59.100;10.58.59.102;deneme.thynet.thy.com;10.58.59.110;10.58.59.135</t>
+  </si>
+  <si>
+    <t>tkrac1</t>
+  </si>
+  <si>
+    <t>tkracdab.thy.com</t>
+  </si>
+  <si>
+    <t>tkrac2</t>
+  </si>
+  <si>
+    <t>OracleXXXX</t>
+  </si>
+  <si>
+    <t>ens13</t>
+  </si>
+  <si>
+    <t>PAM100556</t>
+  </si>
+  <si>
+    <t>ens13.thy.com</t>
+  </si>
+  <si>
+    <t>10.58.59.101;test.thynet.thy.com;10.58.59.102</t>
+  </si>
+  <si>
+    <t>10.58.59.281;test.thynet.thy.com;10.58.59.282</t>
+  </si>
+  <si>
+    <t>09.58.59.251;test.thynet.9.17.245;09.58.59.252</t>
   </si>
 </sst>
 </file>
@@ -680,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +903,7 @@
         <v>45603.824108796296</v>
       </c>
       <c r="R3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -971,6 +998,173 @@
       </c>
       <c r="U5" s="4">
         <v>45682.314259259256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" s="4">
+        <v>45831.65834490741</v>
+      </c>
+      <c r="T6" s="4">
+        <v>45471.727349537039</v>
+      </c>
+      <c r="U6" s="4">
+        <v>45831.658368055556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>1453</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="4">
+        <v>45831.65834490741</v>
+      </c>
+      <c r="T7" s="4">
+        <v>45471.727349537039</v>
+      </c>
+      <c r="U7" s="4">
+        <v>45831.658368055556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8">
+        <v>1453</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="4">
+        <v>45831.65834490741</v>
+      </c>
+      <c r="T8" s="4">
+        <v>45471.727349537039</v>
+      </c>
+      <c r="U8" s="4">
+        <v>45831.658368055556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9">
+        <v>1532</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" s="4">
+        <v>45831.65834490741</v>
+      </c>
+      <c r="T9" s="4">
+        <v>45471.727349537039</v>
+      </c>
+      <c r="U9" s="4">
+        <v>45831.658368055556</v>
       </c>
     </row>
   </sheetData>

--- a/data/PamEnvanter.xlsx
+++ b/data/PamEnvanter.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnesPekdas\Desktop\Projeler\BT-THY\Otomasyon\BTMigrate\Case Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A3824F-3401-41AC-BBBA-05ECEE72703A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0772A0B1-D9F2-4D3C-BCEC-EFC9E1574E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="79">
   <si>
     <t>S_OZCAN</t>
   </si>
@@ -223,9 +224,6 @@
     <t>10.58.59.101;Server2;Server3;10.58.59.104;</t>
   </si>
   <si>
-    <t>10.58.59.105;10.58.59.106;Server7;server8.thynet.thy.com;server9.thynet.thy.com;server10.thynet.thy.com</t>
-  </si>
-  <si>
     <t>server11.thy.com</t>
   </si>
   <si>
@@ -254,6 +252,18 @@
   </si>
   <si>
     <t>dam118065</t>
+  </si>
+  <si>
+    <t>10.58.59.105;10.58.59.106;Server7;10.58.59.108;server9.thynet.thy.com;server10.thynet.thy.com</t>
+  </si>
+  <si>
+    <t>MsSQL</t>
+  </si>
+  <si>
+    <t>10.58.59.105;10.58.59.106;Server7;server10.thynet.thy.com</t>
+  </si>
+  <si>
+    <t>10.58.59.108;server9.thynet.thy.com;</t>
   </si>
 </sst>
 </file>
@@ -572,10 +582,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>1453</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837E11DB-F158-4170-B29F-90E6B4DDFB40}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +929,7 @@
         <v>45603.824108796296</v>
       </c>
       <c r="R3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -788,7 +949,7 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
@@ -832,10 +993,10 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -847,7 +1008,7 @@
         <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K5">
         <v>1453</v>
@@ -876,10 +1037,10 @@
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -891,7 +1052,7 @@
         <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K6">
         <v>1453</v>
@@ -923,13 +1084,13 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
         <v>30</v>
@@ -956,7 +1117,7 @@
         <v>45845.398310185185</v>
       </c>
       <c r="R7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
@@ -982,7 +1143,7 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
@@ -1009,7 +1170,7 @@
         <v>45845.398310185185</v>
       </c>
       <c r="R8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -1029,10 +1190,10 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
         <v>44</v>
@@ -1044,7 +1205,7 @@
         <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -1070,10 +1231,10 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
@@ -1105,11 +1266,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A7873E-8622-4D7D-B36F-126B5FC9850B}">
   <dimension ref="A1:U31"/>
   <sheetViews>
